--- a/data/Zooplankton-species-counts-bamfield2022.xlsx
+++ b/data/Zooplankton-species-counts-bamfield2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ar/Desktop/Bamfield/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ar/Desktop/eosc573/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6622A92F-F4E1-4F48-AD4E-14A67C1A128F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FAF7C6-DE06-424E-AF3F-A141569A918F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="5" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="4" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
   </bookViews>
   <sheets>
     <sheet name="Species counts" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,10 @@
     <sheet name="Size structure" sheetId="4" r:id="rId4"/>
     <sheet name="Key Table" sheetId="5" r:id="rId5"/>
     <sheet name="Diversity and Evenness" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Species counts'!$AE$131:$AE$156</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Size structure'!$K$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Size structure'!$K$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Size structure'!$L$9:$O$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Size structure'!$K$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Size structure'!$K$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Size structure'!$K$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Size structure'!$L$4:$O$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Size structure'!$L$5:$O$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Size structure'!$L$6:$O$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Size structure'!$L$7:$O$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Size structure'!$L$8:$O$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="281">
   <si>
     <t>Zoplankton data sheet</t>
   </si>
@@ -943,6 +933,15 @@
   <si>
     <t>Pielou's eveness</t>
   </si>
+  <si>
+    <t>Biovolume</t>
+  </si>
+  <si>
+    <t>Microcalanus sp.</t>
+  </si>
+  <si>
+    <t>Paracalanus/Clausocalanus</t>
+  </si>
 </sst>
 </file>
 
@@ -951,7 +950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1102,6 +1101,14 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1217,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1271,13 +1278,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27718,7 +27726,7 @@
         <v>3000</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I25" si="0">10^((E3*LOG(H3,10))+F3)</f>
+        <f t="shared" ref="I3:I24" si="0">10^((E3*LOG(H3,10))+F3)</f>
         <v>450.86135685533969</v>
       </c>
       <c r="J3">
@@ -31548,16 +31556,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F97DE8-FE64-144B-8488-623DC1DF8D57}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
@@ -31803,7 +31811,6 @@
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="31"/>
       <c r="G16" s="31"/>
     </row>
     <row r="17" spans="2:10">
@@ -31836,10 +31843,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -32055,9 +32062,6 @@
     <row r="29" spans="2:10">
       <c r="B29" s="31"/>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="31"/>
-    </row>
     <row r="31" spans="2:10">
       <c r="B31" s="31"/>
     </row>
@@ -32138,9 +32142,6 @@
       <c r="B47" s="31" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32152,8 +32153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F307E4-05FE-BE45-8AB1-9DD10E32C7C9}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32164,69 +32165,69 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19"/>
-      <c r="B1" s="47"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>2.2389210632570999</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>0.79024090012639703</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>1.8876183539467499</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>0.65307113134841299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>2.1494813620790398</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>0.73001389306683795</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>2.4981034801973498</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <v>0.79671761711640798</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="47"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19"/>
@@ -32246,4 +32247,27 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B60795A-5F01-2D43-AEBE-1784BA67FBD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31">
+      <c r="A1" s="54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Zooplankton-species-counts-bamfield2022.xlsx
+++ b/data/Zooplankton-species-counts-bamfield2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ar/Desktop/eosc573/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ar/Desktop/School:work/GradSchool/Year 1/Courses/EOSC573/Project/eosc573/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FAF7C6-DE06-424E-AF3F-A141569A918F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA65BB-700C-1549-830E-33DE775A73A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="4" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="3" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
   </bookViews>
   <sheets>
     <sheet name="Species counts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="282">
   <si>
     <t>Zoplankton data sheet</t>
   </si>
@@ -942,6 +942,9 @@
   <si>
     <t>Paracalanus/Clausocalanus</t>
   </si>
+  <si>
+    <t>Aerial biomass (mgC/m^2)</t>
+  </si>
 </sst>
 </file>
 
@@ -1276,7 +1279,6 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1284,8 +1286,9 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3581,7 +3584,7 @@
             <c:numRef>
               <c:f>'Size structure'!$L$5:$O$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>15.86826347</c:v>
@@ -3652,7 +3655,7 @@
             <c:numRef>
               <c:f>'Size structure'!$L$6:$O$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>33.233532930000003</c:v>
@@ -3723,7 +3726,7 @@
             <c:numRef>
               <c:f>'Size structure'!$L$7:$O$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41.616766470000002</c:v>
@@ -3794,7 +3797,7 @@
             <c:numRef>
               <c:f>'Size structure'!$L$8:$O$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.9880239519999998</c:v>
@@ -3865,7 +3868,7 @@
             <c:numRef>
               <c:f>'Size structure'!$L$9:$O$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.0958083830000001</c:v>
@@ -3973,7 +3976,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10571,6 +10574,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -10583,11 +10616,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Biomass!$K$37</c:f>
+              <c:f>Biomass!$K$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Biomass w euphausiids</c:v>
+                  <c:v>Aerial biomass (mgC/m^2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10624,21 +10657,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Biomass!$L$37:$O$37</c:f>
+              <c:f>Biomass!$L$39:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.5895861314436068</c:v>
+                  <c:v>167.6875839433082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.251322865390399</c:v>
+                  <c:v>787.53968596171194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2491141734378606</c:v>
+                  <c:v>194.94685040627164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.078325850135119</c:v>
+                  <c:v>3369.3991020162143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10646,77 +10679,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-800D-3843-9E9F-59AC7503DA69}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Biomass!$K$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Biomass w/o euphausiids</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Biomass!$L$36:$O$36</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>SR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>N1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Biomass!$L$38:$O$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.5895861314436068</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.271515837490902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2491141734378606</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.704614874559347</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-800D-3843-9E9F-59AC7503DA69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10848,37 +10810,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -17760,16 +17691,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>226985</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5437</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36485</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>744969</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>137384</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>554469</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>365984</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17796,16 +17727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>787890</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>21002</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>567197</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>111649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>388942</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>120511</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>69779</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>71642</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17833,15 +17764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>57898</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>468780</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>178548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>485590</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>74707</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28383,8 +28314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4179ED0C-29BF-004B-A242-993B295C52C4}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" zoomScale="68" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="F23" zoomScale="91" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30435,8 +30366,26 @@
         <v>7.704614874559347</v>
       </c>
     </row>
-    <row r="39" spans="11:15">
-      <c r="K39" s="25"/>
+    <row r="39" spans="11:15" ht="51">
+      <c r="K39" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39">
+        <f>L37*30</f>
+        <v>167.6875839433082</v>
+      </c>
+      <c r="M39">
+        <f>M37*30</f>
+        <v>787.53968596171194</v>
+      </c>
+      <c r="N39">
+        <f>N37*60</f>
+        <v>194.94685040627164</v>
+      </c>
+      <c r="O39">
+        <f>O37*120</f>
+        <v>3369.3991020162143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30449,8 +30398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F79EF9-D9D4-FC4F-A9A1-1A9C4BD5E74C}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="50" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30461,6 +30410,8 @@
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
   </cols>
@@ -30529,16 +30480,16 @@
       <c r="K5" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="54">
         <v>15.86826347</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="54">
         <v>45.42533873</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="54">
         <v>38.933333330000004</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="54">
         <v>7.6484947109999997</v>
       </c>
     </row>
@@ -30555,16 +30506,16 @@
       <c r="K6" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="54">
         <v>33.233532930000003</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="54">
         <v>17.600223490000001</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="54">
         <v>21.2991274</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="54">
         <v>24.89829129</v>
       </c>
     </row>
@@ -30581,16 +30532,16 @@
       <c r="K7" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="54">
         <v>41.616766470000002</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="54">
         <v>30.507054060000002</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="54">
         <v>32.266666669999999</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="54">
         <v>20.341741249999998</v>
       </c>
     </row>
@@ -30607,16 +30558,16 @@
       <c r="K8" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="54">
         <v>5.9880239519999998</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="54">
         <v>4.1905294040000003</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="54">
         <v>7.733333333</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="54">
         <v>40.856387310000002</v>
       </c>
     </row>
@@ -30633,16 +30584,16 @@
       <c r="K9" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="54">
         <v>2.0958083830000001</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="54">
         <v>0.41207311600000002</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="54">
         <v>1.066666667</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="54">
         <v>4.6277461349999998</v>
       </c>
       <c r="R9" s="24"/>
@@ -31558,7 +31509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F97DE8-FE64-144B-8488-623DC1DF8D57}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -32169,65 +32120,65 @@
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="46"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="53"/>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>2.2389210632570999</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>0.79024090012639703</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <v>1.8876183539467499</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>0.65307113134841299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>2.1494813620790398</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>0.73001389306683795</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>2.4981034801973498</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>0.79671761711640798</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="46"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19"/>
@@ -32263,7 +32214,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="31">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>278</v>
       </c>
     </row>

--- a/data/Zooplankton-species-counts-bamfield2022.xlsx
+++ b/data/Zooplankton-species-counts-bamfield2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ar/Desktop/School:work/GradSchool/Year 1/Courses/EOSC573/Project/eosc573/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA65BB-700C-1549-830E-33DE775A73A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2821E6-04AE-4248-9592-62E734791947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="3" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="2" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
   </bookViews>
   <sheets>
     <sheet name="Species counts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="283">
   <si>
     <t>Zoplankton data sheet</t>
   </si>
@@ -945,6 +945,9 @@
   <si>
     <t>Aerial biomass (mgC/m^2)</t>
   </si>
+  <si>
+    <t>Proportion of biomass in size classes</t>
+  </si>
 </sst>
 </file>
 
@@ -1287,8 +1290,8 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17691,16 +17694,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>36485</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>170537</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>776156</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>554469</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>365984</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>470733</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>212468</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17840,16 +17843,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>856436</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1872437</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>175194</xdr:rowOff>
+      <xdr:rowOff>196360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>716411</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60245</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:rowOff>167704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28314,8 +28317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4179ED0C-29BF-004B-A242-993B295C52C4}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView topLeftCell="F23" zoomScale="91" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29407,6 +29410,25 @@
         <f t="shared" si="3"/>
         <v>0.11609033701902156</v>
       </c>
+      <c r="Z14" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA14">
+        <f>100*SUM(AF12,AF7,AF8)</f>
+        <v>4.3880572100743231</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ref="AB14:AD14" si="13">100*SUM(AG12,AG7,AG8)</f>
+        <v>17.849903601457946</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="13"/>
+        <v>10.964106257992642</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="13"/>
+        <v>0.27260462055203144</v>
+      </c>
     </row>
     <row r="15" spans="1:35">
       <c r="C15" s="17">
@@ -29465,6 +29487,25 @@
         <f t="shared" si="3"/>
         <v>0.47627124176633978</v>
       </c>
+      <c r="Z15" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA15">
+        <f>SUM(Biomass!P8,Biomass!P15,Biomass!P16,Biomass!P18,Biomass!P26,Biomass!P27)</f>
+        <v>27.190664404945508</v>
+      </c>
+      <c r="AB15">
+        <f>SUM(Biomass!Q8,Biomass!Q15,Biomass!Q16,Biomass!Q18,Biomass!Q26,Biomass!Q27)</f>
+        <v>19.239457289620901</v>
+      </c>
+      <c r="AC15">
+        <f>SUM(Biomass!R8,Biomass!R15,Biomass!R16,Biomass!R18,Biomass!R26,Biomass!R27)</f>
+        <v>30.401374963550701</v>
+      </c>
+      <c r="AD15">
+        <f>SUM(Biomass!S8,Biomass!S15,Biomass!S16,Biomass!S18,Biomass!S26,Biomass!S27)</f>
+        <v>1.1686596570973857</v>
+      </c>
     </row>
     <row r="16" spans="1:35">
       <c r="C16" s="17">
@@ -29523,8 +29564,27 @@
         <f t="shared" si="3"/>
         <v>9.4211544513672904E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:19">
+      <c r="Z16" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA16">
+        <f>SUM(P9,P12,P13,P14)</f>
+        <v>31.296932263077991</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" ref="AB16:AD16" si="14">SUM(Q9,Q12,Q13,Q14)</f>
+        <v>21.456661527556399</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="14"/>
+        <v>19.473647230650023</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="14"/>
+        <v>1.1960383332729767</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30">
       <c r="C17" s="17">
         <v>1.2499999999999944</v>
       </c>
@@ -29581,8 +29641,27 @@
         <f t="shared" si="3"/>
         <v>0.22391422574410264</v>
       </c>
-    </row>
-    <row r="18" spans="3:19">
+      <c r="Z17" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA17">
+        <f>SUM(Biomass!P7,Biomass!P10,Biomass!P11,Biomass!P19)</f>
+        <v>31.605655110086889</v>
+      </c>
+      <c r="AB17">
+        <f>SUM(Biomass!Q7,Biomass!Q10,Biomass!Q11,Biomass!Q19)</f>
+        <v>21.382575629058223</v>
+      </c>
+      <c r="AC17">
+        <f>SUM(Biomass!R7,Biomass!R10,Biomass!R11,Biomass!R19)</f>
+        <v>30.629053359159649</v>
+      </c>
+      <c r="AD17">
+        <f>SUM(Biomass!S7,Biomass!S10,Biomass!S11,Biomass!S19)</f>
+        <v>17.378206864054913</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30">
       <c r="C18" s="17">
         <v>29.284554805619145</v>
       </c>
@@ -29639,8 +29718,27 @@
         <f t="shared" si="3"/>
         <v>6.3899324976821967E-3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19">
+      <c r="Z18" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA18">
+        <f>SUM(P4:P6,P17,P20:P23)</f>
+        <v>5.7719682821849112</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AC18" si="15">SUM(Q4:Q6,Q17,Q20:Q23)</f>
+        <v>20.215010480805429</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="15"/>
+        <v>8.5895735864036986</v>
+      </c>
+      <c r="AD18">
+        <f>SUM(S4:S6,S17,S20:S23)</f>
+        <v>79.985100925548139</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30">
       <c r="C19" s="17">
         <v>0.97498963771738456</v>
       </c>
@@ -29698,7 +29796,7 @@
         <v>3.4215669109101811E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:30">
       <c r="C20" s="17">
         <v>50.118723362727174</v>
       </c>
@@ -29756,7 +29854,7 @@
         <v>72.526424962853199</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:30">
       <c r="C21" s="17">
         <v>11066.237839776661</v>
       </c>
@@ -29814,7 +29912,7 @@
         <v>0.15140359262745753</v>
       </c>
     </row>
-    <row r="22" spans="3:19">
+    <row r="22" spans="3:30">
       <c r="C22" s="17">
         <v>739.24754092660589</v>
       </c>
@@ -29872,7 +29970,7 @@
         <v>6.983205804670331E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:19">
+    <row r="23" spans="3:30">
       <c r="C23" s="17">
         <v>255.72301303919352</v>
       </c>
@@ -29930,7 +30028,7 @@
         <v>5.99534170352013</v>
       </c>
     </row>
-    <row r="24" spans="3:19">
+    <row r="24" spans="3:30">
       <c r="C24" s="17">
         <v>609.8547506959635</v>
       </c>
@@ -29988,7 +30086,7 @@
         <v>3.0352342282017799E-3</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:30">
       <c r="C25" s="17">
         <v>0.27787353825242617</v>
       </c>
@@ -30046,7 +30144,7 @@
         <v>9.2460990182160072E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:19">
+    <row r="26" spans="3:30">
       <c r="C26" s="17">
         <v>4.7026322189055056</v>
       </c>
@@ -30104,7 +30202,7 @@
         <v>0.56338899799384523</v>
       </c>
     </row>
-    <row r="27" spans="3:19">
+    <row r="27" spans="3:30">
       <c r="C27" s="17">
         <v>128.94465675041755</v>
       </c>
@@ -30162,7 +30260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:19">
+    <row r="28" spans="3:30">
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="1" t="s">
@@ -30216,7 +30314,7 @@
         <v>0.17649799561621782</v>
       </c>
     </row>
-    <row r="29" spans="3:19">
+    <row r="29" spans="3:30">
       <c r="C29" s="17">
         <v>8.5043506138405665</v>
       </c>
@@ -30260,7 +30358,7 @@
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" spans="3:19">
+    <row r="30" spans="3:30">
       <c r="C30" s="17">
         <v>4.6398078998212569</v>
       </c>
@@ -30277,28 +30375,28 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="3:19">
+    <row r="31" spans="3:30">
       <c r="E31" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F31" s="41">
-        <f t="shared" ref="F31:M31" si="13">SUM(F5:F29)</f>
+        <f t="shared" ref="F31:M31" si="16">SUM(F5:F29)</f>
         <v>1168.156084832121</v>
       </c>
       <c r="G31" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4691.4841402337233</v>
       </c>
       <c r="H31" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>509.18142112874193</v>
       </c>
       <c r="I31" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>412.1949644412378</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.5895861314436068</v>
       </c>
       <c r="K31" s="3">
@@ -30306,11 +30404,11 @@
         <v>26.251322865390399</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.3521291973134848</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.091431483091636</v>
       </c>
     </row>
@@ -30398,8 +30496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F79EF9-D9D4-FC4F-A9A1-1A9C4BD5E74C}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="D1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30414,6 +30512,7 @@
     <col min="13" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="26">
@@ -30460,6 +30559,21 @@
       <c r="O4" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="2:22" ht="19">
       <c r="B5" s="28" t="s">
@@ -30480,18 +30594,25 @@
       <c r="K5" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="53">
         <v>15.86826347</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="53">
         <v>45.42533873</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="53">
         <v>38.933333330000004</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="53">
         <v>7.6484947109999997</v>
       </c>
+      <c r="Q5" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="5" t="s">
@@ -30506,18 +30627,25 @@
       <c r="K6" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="53">
         <v>33.233532930000003</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="53">
         <v>17.600223490000001</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="53">
         <v>21.2991274</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="53">
         <v>24.89829129</v>
       </c>
+      <c r="Q6" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="5" t="s">
@@ -30532,18 +30660,25 @@
       <c r="K7" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="53">
         <v>41.616766470000002</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="53">
         <v>30.507054060000002</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="53">
         <v>32.266666669999999</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="53">
         <v>20.341741249999998</v>
       </c>
+      <c r="Q7" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
     </row>
     <row r="8" spans="2:22">
       <c r="B8" s="5" t="s">
@@ -30558,18 +30693,25 @@
       <c r="K8" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="53">
         <v>5.9880239519999998</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="53">
         <v>4.1905294040000003</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="53">
         <v>7.733333333</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="53">
         <v>40.856387310000002</v>
       </c>
+      <c r="Q8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="5" t="s">
@@ -30584,22 +30726,25 @@
       <c r="K9" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="53">
         <v>2.0958083830000001</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="53">
         <v>0.41207311600000002</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="53">
         <v>1.066666667</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="53">
         <v>4.6277461349999998</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
+      <c r="Q9" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
       <c r="V9" s="24"/>
     </row>
     <row r="10" spans="2:22">
@@ -32116,12 +32261,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19"/>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="45"/>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">

--- a/data/Zooplankton-species-counts-bamfield2022.xlsx
+++ b/data/Zooplankton-species-counts-bamfield2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ar/Desktop/School:work/GradSchool/Year 1/Courses/EOSC573/Project/eosc573/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2821E6-04AE-4248-9592-62E734791947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFF310-1A6D-1F46-A4F1-48F9952F35A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="2" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
+    <workbookView xWindow="6100" yWindow="460" windowWidth="22400" windowHeight="16680" activeTab="2" xr2:uid="{0D48336A-9344-BE4D-81A2-EFF2F9B1002C}"/>
   </bookViews>
   <sheets>
     <sheet name="Species counts" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="283">
   <si>
     <t>Zoplankton data sheet</t>
   </si>
@@ -3537,6 +3537,1133 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$Z$14:$Z$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-0.5mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51-1.0mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01-1.5mm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51-3mm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt;3mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AA$14:$AA$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3880572100743231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.190664404945508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.296932263077991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.605655110086889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7719682821849112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6710-4945-870E-9A9153DF70FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$Z$14:$Z$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-0.5mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51-1.0mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01-1.5mm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51-3mm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt;3mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AB$14:$AB$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.849903601457946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.239457289620901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.456661527556399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.382575629058223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.215010480805429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6710-4945-870E-9A9153DF70FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$Z$14:$Z$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-0.5mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51-1.0mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01-1.5mm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51-3mm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt;3mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AC$14:$AC$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.964106257992642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.401374963550701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.473647230650023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.629053359159649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5895735864036986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6710-4945-870E-9A9153DF70FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$Z$14:$Z$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-0.5mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51-1.0mm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01-1.5mm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51-3mm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt;3mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AD$14:$AD$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27260462055203144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1686596570973857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1960383332729767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.378206864054913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.985100925548139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6710-4945-870E-9A9153DF70FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="690879680"/>
+        <c:axId val="690208864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="690879680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690208864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="690208864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690879680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Biomass!$Z$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-0.5mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$AA$13:$AD$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AA$14:$AD$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3880572100743231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.849903601457946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.964106257992642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27260462055203144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3D5-524E-B1CA-2B7C091F4895}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Biomass!$Z$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.51-1.0mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$AA$13:$AD$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AA$15:$AD$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27.190664404945508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.239457289620901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.401374963550701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1686596570973857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3D5-524E-B1CA-2B7C091F4895}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Biomass!$Z$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.01-1.5mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$AA$13:$AD$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AA$16:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31.296932263077991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.456661527556399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.473647230650023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1960383332729767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3D5-524E-B1CA-2B7C091F4895}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Biomass!$Z$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.51-3mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$AA$13:$AD$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AA$17:$AD$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31.605655110086889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.382575629058223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.629053359159649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.378206864054913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3D5-524E-B1CA-2B7C091F4895}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Biomass!$Z$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;3mm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Biomass!$AA$13:$AD$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Biomass!$AA$18:$AD$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.7719682821849112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.215010480805429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5895735864036986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.985100925548139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A3D5-524E-B1CA-2B7C091F4895}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="735205696"/>
+        <c:axId val="732611232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="735205696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732611232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732611232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735205696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -10978,6 +12105,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12862,6 +14069,1014 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17836,6 +20051,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>191248</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7ABA51-028C-5C48-89FE-BB9410F237D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>776341</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>776342</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38846</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7F99C8-97CE-4A43-87AB-FCDFDB99CE25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28317,8 +30604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4179ED0C-29BF-004B-A242-993B295C52C4}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" topLeftCell="Y8" zoomScale="125" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29352,6 +31639,18 @@
         <f t="shared" si="3"/>
         <v>0.28422638621539636</v>
       </c>
+      <c r="AA13" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC13" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD13" s="39" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:35">
       <c r="C14" s="17">
@@ -30496,7 +32795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F79EF9-D9D4-FC4F-A9A1-1A9C4BD5E74C}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="63" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
